--- a/data/IKS reports.xlsx
+++ b/data/IKS reports.xlsx
@@ -6,8 +6,13 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="Z_C656F1EF_E40E_4677_8D94_FE0D887E61B3_.wvu.FilterData">Sheet1!$A$1:$AU$182</definedName>
+  </definedNames>
   <calcPr/>
+  <customWorkbookViews>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C656F1EF-E40E-4677-8D94-FE0D887E61B3}" name="Filter 1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
@@ -42,7 +47,7 @@
     <t>Group</t>
   </si>
   <si>
-    <t>HRV_Basline</t>
+    <t>HRV_Baseline</t>
   </si>
   <si>
     <t>Contact Number</t>
@@ -10031,7 +10036,7 @@
         <v>345</v>
       </c>
       <c r="AO59" s="78">
-        <v>0.4875</v>
+        <v>0.9875</v>
       </c>
       <c r="AP59" s="14" t="s">
         <v>78</v>
@@ -33893,6 +33898,11 @@
       <c r="AS1001" s="30"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{C656F1EF-E40E-4677-8D94-FE0D887E61B3}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$AU$182"/>
+    </customSheetView>
+  </customSheetViews>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
